--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3309620.335098707</v>
+        <v>3302605.588641562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10868463.63296455</v>
+        <v>10747230.11886604</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357167.375808614</v>
+        <v>881594.0812127445</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7708243.253150837</v>
+        <v>7822014.933648153</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>251.026723075001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>136.7490032628964</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128492</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1593,7 +1593,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>139.3414439270824</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>283.3850917015897</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124552</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1846,13 +1846,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>234.9948000214067</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231188</v>
@@ -1861,7 +1861,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>201.3068203803355</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2067,7 +2067,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2083,19 +2083,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>35.99728755762285</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>180.8166884192792</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2304,7 +2304,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
         <v>171.6095167335022</v>
@@ -2320,19 +2320,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958415</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2484,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2541,7 +2541,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2572,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687276</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124572</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3207,7 +3207,7 @@
         <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>158.1538770017694</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D35" t="n">
-        <v>293.9061811686306</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>321.1535096202094</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F35" t="n">
-        <v>346.0991852896591</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>350.1448652014011</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>233.8309039352681</v>
+        <v>148.3752332772578</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T35" t="n">
-        <v>143.1411096875678</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U35" t="n">
-        <v>190.2183115068496</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V35" t="n">
-        <v>266.9753980180826</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W35" t="n">
-        <v>288.4641082653607</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X35" t="n">
-        <v>308.9542402264167</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.4610782040012</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>119.0551197298849</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C37" t="n">
-        <v>106.4699606465755</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D37" t="n">
-        <v>87.83861256615999</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>85.65710219451681</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F37" t="n">
-        <v>84.64418757087888</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>105.2489478069759</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H37" t="n">
-        <v>83.97815446226842</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>35.57555995778575</v>
+        <v>4.862468355195444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.15529221799498</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>128.9921648793895</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T37" t="n">
-        <v>158.7720888241168</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>225.4349777535605</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V37" t="n">
-        <v>191.3607828717757</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W37" t="n">
-        <v>225.7461378845387</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X37" t="n">
-        <v>164.9327949369848</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8077929000424</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>321.9569812114282</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C38" t="n">
-        <v>304.4960313189552</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D38" t="n">
-        <v>293.9061811686306</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>321.1535096202094</v>
+        <v>250.9353275131896</v>
       </c>
       <c r="F38" t="n">
-        <v>346.0991852896591</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>350.1448652014011</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>42.58194527453156</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>48.41090133612347</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>143.1411096875678</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U38" t="n">
-        <v>190.2183115068496</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V38" t="n">
-        <v>266.9753980180826</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W38" t="n">
-        <v>288.4641082653607</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X38" t="n">
-        <v>308.9542402264167</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.0551197298849</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C40" t="n">
-        <v>106.4699606465755</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>87.83861256615999</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E40" t="n">
-        <v>85.65710219451681</v>
+        <v>59.96213115906459</v>
       </c>
       <c r="F40" t="n">
-        <v>84.64418757087888</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.2489478069759</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H40" t="n">
-        <v>83.97815446226842</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I40" t="n">
-        <v>35.57555995778575</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.15529221799498</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>128.9921648793895</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T40" t="n">
-        <v>158.7720888241168</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U40" t="n">
-        <v>225.4349777535605</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V40" t="n">
-        <v>191.3607828717757</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W40" t="n">
-        <v>225.7461378845387</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X40" t="n">
-        <v>164.9327949369848</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.8077929000424</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>368.9321178300208</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>351.4711679375478</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>340.8813177872232</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>368.128646238802</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>393.0743219082516</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>340.2103598718143</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>335.4392448839532</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>355.9293768450092</v>
+        <v>316.7744094091656</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.4362148225938</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0302563484775</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>153.445097265168</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>134.8137491847526</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>132.6322388131094</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>131.6193241894715</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>152.2240844255684</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>130.953291080861</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>82.55069657637833</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.13042883658755</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>175.9673014979821</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>205.7472254427094</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>211.9079315555774</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.3695383564941</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368.9321178300208</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>351.4711679375478</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>340.8813177872232</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>368.128646238802</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>393.0743219082516</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1473204948911</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.38603795471606</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>190.1162463061604</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>296.2842774481097</v>
       </c>
       <c r="X44" t="n">
-        <v>355.9293768450092</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>372.4362148225938</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0302563484775</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>131.6193241894715</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>70.86888665463206</v>
+        <v>41.95701605145609</v>
       </c>
       <c r="S46" t="n">
-        <v>175.9673014979821</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>205.7472254427094</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>272.4101143721531</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
-        <v>238.3359194903682</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>272.7212745031312</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>211.9079315555774</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.782929518635</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464212</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C11" t="n">
-        <v>1301.367519464212</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D11" t="n">
-        <v>1301.367519464212</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E11" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2966.106365090477</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268787</v>
@@ -5190,22 +5190,22 @@
         <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5217,22 +5217,22 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232655</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
         <v>1386.143792573978</v>
@@ -5266,64 +5266,64 @@
         <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607998</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.959858232655</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254614</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.312693361199</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268792</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770421</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5481,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1707.656676566316</v>
+        <v>1606.686541786253</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.143792573978</v>
+        <v>1285.173657793915</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E17" t="n">
         <v>1047.805172923807</v>
@@ -5509,22 +5509,22 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5536,13 +5536,13 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
         <v>3104.236671416634</v>
@@ -5551,16 +5551,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2694.815605032144</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2389.496582710103</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="X17" t="n">
-        <v>2389.496582710103</v>
+        <v>2288.52644793004</v>
       </c>
       <c r="Y17" t="n">
-        <v>2046.806883682365</v>
+        <v>1945.836748902302</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
         <v>434.8492327268783</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5688,13 +5688,13 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
         <v>2256.956805813346</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.472742224994</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232655</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D20" t="n">
         <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F20" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3289.244925086318</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3005.631670690821</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W20" t="n">
-        <v>2700.31264836878</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="X20" t="n">
-        <v>2700.31264836878</v>
+        <v>2389.496582710104</v>
       </c>
       <c r="Y20" t="n">
-        <v>2357.622949341042</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5852,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5928,7 +5928,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107745</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
@@ -6001,19 +6001,19 @@
         <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2323.523017442385</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>2826.495488321722</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309626</v>
@@ -6065,28 +6065,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.688342997847</v>
@@ -6144,7 +6144,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6165,16 +6165,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
         <v>1953.038372570351</v>
@@ -6183,7 +6183,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6214,16 +6214,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
@@ -6238,37 +6238,37 @@
         <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871311</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6323,10 +6323,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6402,7 +6402,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6454,49 +6454,49 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1045.699547878785</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127194</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799118</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6505,7 +6505,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6539,31 +6539,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6618,16 +6618,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6676,73 +6676,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524676</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6855,13 +6855,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982159</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1627.254182306091</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C35" t="n">
-        <v>1627.254182306091</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D35" t="n">
-        <v>1330.379251832727</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E35" t="n">
-        <v>1005.981767367869</v>
+        <v>852.6459125918323</v>
       </c>
       <c r="F35" t="n">
-        <v>656.3866307116473</v>
+        <v>536.5592736983714</v>
       </c>
       <c r="G35" t="n">
-        <v>302.70494869003</v>
+        <v>216.3860894395145</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T35" t="n">
-        <v>3181.018842126778</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U35" t="n">
-        <v>2988.879133534001</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
-        <v>2719.207014323816</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W35" t="n">
-        <v>2427.829127187088</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X35" t="n">
-        <v>2115.754137059394</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y35" t="n">
-        <v>1787.005573216969</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>661.8783035081037</v>
+        <v>714.50178976888</v>
       </c>
       <c r="C37" t="n">
-        <v>554.3328887135831</v>
+        <v>640.4648727371198</v>
       </c>
       <c r="D37" t="n">
-        <v>465.6070174346336</v>
+        <v>490.348233324784</v>
       </c>
       <c r="E37" t="n">
-        <v>379.0846919856268</v>
+        <v>437.3344056385375</v>
       </c>
       <c r="F37" t="n">
-        <v>293.5855126211026</v>
+        <v>290.4444581406271</v>
       </c>
       <c r="G37" t="n">
-        <v>187.2734441292078</v>
+        <v>217.6408874114927</v>
       </c>
       <c r="H37" t="n">
-        <v>102.4470254804518</v>
+        <v>71.42370062935052</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7101,46 +7101,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>692.3508221240231</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1036.507867723572</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>1438.085336276969</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1766.061670556565</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.669170990224</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2076.279467142739</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>2047.839778033653</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1917.544661993865</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T37" t="n">
-        <v>1757.168814696778</v>
+        <v>1608.741314380991</v>
       </c>
       <c r="U37" t="n">
-        <v>1529.456715955807</v>
+        <v>1414.537713402781</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.162995883307</v>
+        <v>1254.752491093041</v>
       </c>
       <c r="W37" t="n">
-        <v>1108.136593979732</v>
+        <v>1060.234586952227</v>
       </c>
       <c r="X37" t="n">
-        <v>941.5378112151011</v>
+        <v>927.1443019503566</v>
       </c>
       <c r="Y37" t="n">
-        <v>782.1360002049572</v>
+        <v>801.2509887029731</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1741.64516478914</v>
+        <v>1696.355985625557</v>
       </c>
       <c r="C38" t="n">
-        <v>1434.073415982115</v>
+        <v>1422.292734581292</v>
       </c>
       <c r="D38" t="n">
-        <v>1137.19848550875</v>
+        <v>1158.926301870688</v>
       </c>
       <c r="E38" t="n">
-        <v>812.8010010438923</v>
+        <v>905.4562740795873</v>
       </c>
       <c r="F38" t="n">
-        <v>463.2058643876709</v>
+        <v>589.3696351861264</v>
       </c>
       <c r="G38" t="n">
-        <v>109.5241823660537</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3276.705921269651</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3132.118941787259</v>
+        <v>3214.527339889539</v>
       </c>
       <c r="U38" t="n">
-        <v>2939.979233194482</v>
+        <v>3055.896129059522</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.307113984297</v>
+        <v>2819.732507612098</v>
       </c>
       <c r="W38" t="n">
-        <v>2378.929226847569</v>
+        <v>2561.86311823813</v>
       </c>
       <c r="X38" t="n">
-        <v>2066.854236719876</v>
+        <v>2283.296625873197</v>
       </c>
       <c r="Y38" t="n">
-        <v>2066.854236719876</v>
+        <v>1988.056559793532</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>661.8783035081037</v>
+        <v>719.5705984225548</v>
       </c>
       <c r="C40" t="n">
-        <v>554.3328887135831</v>
+        <v>550.6344154946479</v>
       </c>
       <c r="D40" t="n">
-        <v>465.6070174346336</v>
+        <v>495.4170419784588</v>
       </c>
       <c r="E40" t="n">
-        <v>379.0846919856268</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F40" t="n">
-        <v>293.5855126211026</v>
+        <v>287.959285228968</v>
       </c>
       <c r="G40" t="n">
-        <v>187.2734441292078</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H40" t="n">
-        <v>102.4470254804518</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7338,46 +7338,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>660.8284656356741</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1065.154603082755</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>1406.562979788619</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1705.892578709033</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.669170990224</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2076.279467142739</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>2047.839778033653</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1917.544661993865</v>
+        <v>1740.677472568993</v>
       </c>
       <c r="T40" t="n">
-        <v>1757.168814696778</v>
+        <v>1613.810123034666</v>
       </c>
       <c r="U40" t="n">
-        <v>1529.456715955807</v>
+        <v>1419.606522056456</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.162995883307</v>
+        <v>1259.821299746716</v>
       </c>
       <c r="W40" t="n">
-        <v>1108.136593979732</v>
+        <v>1065.303395605902</v>
       </c>
       <c r="X40" t="n">
-        <v>941.5378112151011</v>
+        <v>932.2131106040314</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.1360002049572</v>
+        <v>806.3197973566479</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1878.396776779294</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C41" t="n">
-        <v>1523.375395024195</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D41" t="n">
-        <v>1179.050831602757</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E41" t="n">
-        <v>807.2037141898259</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>410.1589445855312</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7450,13 +7450,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2986.778301524369</v>
+        <v>3020.286799287129</v>
       </c>
       <c r="X41" t="n">
-        <v>2627.253678448601</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.055481658103</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.025734144617</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C43" t="n">
-        <v>839.030686402023</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D43" t="n">
-        <v>702.8551821750002</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E43" t="n">
-        <v>568.88322377792</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F43" t="n">
-        <v>435.9344114653226</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G43" t="n">
-        <v>282.1727100253544</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
-        <v>149.8966584285251</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>125.2984554742441</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>342.9493450182456</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>673.1728500618669</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1030.993602256541</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.065685557531</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1699.05899107307</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>1945.330198101854</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2036.604200849494</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>1960.714878792335</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>1782.970129804474</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1575.144649559313</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1575.144649559313</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
-        <v>1575.144649559313</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1575.144649559313</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1361.096233846609</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>1161.733063789544</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1928.838151146038</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.816769390939</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.492205969501</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E44" t="n">
-        <v>857.64508855657</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>460.6003189522754</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3229.256288321578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3037.219675891113</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3037.219675891113</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.219675891113</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.219675891113</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X44" t="n">
-        <v>2677.695052815346</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y44" t="n">
-        <v>2301.496856024847</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>199.4609287447808</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C46" t="n">
-        <v>199.4609287447808</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D46" t="n">
-        <v>199.4609287447808</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E46" t="n">
-        <v>199.4609287447808</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>125.2984554742441</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>342.9493450182456</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L46" t="n">
-        <v>673.1728500618669</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M46" t="n">
-        <v>1030.993602256541</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.065685557531</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1699.05899107307</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>1945.330198101854</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2036.604200849494</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>1965.019466854916</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S46" t="n">
-        <v>1787.274717867055</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T46" t="n">
-        <v>1579.449237621894</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U46" t="n">
-        <v>1304.287505932851</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
-        <v>1063.544152912277</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W46" t="n">
-        <v>788.0681180606291</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X46" t="n">
-        <v>574.0197023479247</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>367.1682583897076</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>131.4051496618627</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>145.6912275408193</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>143.4683437367655</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>127.6468450459097</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>125.0518919455488</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>131.5529163660241</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>147.1268663512404</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>159.1454893777268</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>97.27193314239355</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>87.30895958699702</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>70.60722514828133</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>62.84290932718713</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>49.95198735858177</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>68.14054709468144</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>74.21714616091565</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>100.035627466531</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>98.53226637261261</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>95.87950101807482</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>97.80029556172224</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>87.53792827318043</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>101.3737168185014</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>105.9972438864274</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>21.13839585591529</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>167.7369666428379</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550068</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>277.220684154413</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.71785991911951</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>83.92851037866814</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>67.271032077413</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>162.924388171738</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.87771033587131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>72.71310498068368</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>79.4703014712068</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>168.0227477826865</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>121.4491436795413</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>163.8031042096588</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>304.4960313189552</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>52.28225787287749</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>48.41090133612347</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>37.044769321887</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>191.2489586607366</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.4610782040012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>56.90964194817934</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>280.8060405538607</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.77520593946619</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.38603795471606</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
-        <v>190.1162463061604</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>237.1934481254422</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>313.9505346366751</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.981554650710848</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>272.4101143721531</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>238.3359194903682</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.7212745031312</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.413391162140925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.972681325102599</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>280.8060405538607</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>27.77520593946619</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>237.1934481254422</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>313.9505346366751</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>335.4392448839532</v>
+        <v>5.981554650710677</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>153.445097265168</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>134.8137491847526</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>132.6322388131094</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.2240844255684</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.953291080861</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>82.55069657637833</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.261542181955491</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>698177.0698011687</v>
+        <v>721188.5787954391</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623213.7432471082</v>
+        <v>623213.7432471084</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695809.9759464439</v>
+        <v>695809.9759464437</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635518.2560791143</v>
+        <v>665093.0170453158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635518.2560791143</v>
+        <v>665093.0170453162</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576685.3477357478</v>
+        <v>623213.7432471083</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576685.3477357477</v>
+        <v>623213.7432471083</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778383.8949127768</v>
+        <v>778356.7502249972</v>
       </c>
       <c r="E2" t="n">
+        <v>726304.4593953508</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726304.4593953507</v>
+      </c>
+      <c r="G2" t="n">
         <v>726304.459395351</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>726304.4593953504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>779989.6813710696</v>
+      </c>
+      <c r="J2" t="n">
+        <v>779989.6813710697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>779989.6813710702</v>
+      </c>
+      <c r="L2" t="n">
+        <v>779989.68137107</v>
+      </c>
+      <c r="M2" t="n">
+        <v>776036.0970307223</v>
+      </c>
+      <c r="N2" t="n">
+        <v>776036.0970307222</v>
+      </c>
+      <c r="O2" t="n">
         <v>726304.4593953509</v>
       </c>
-      <c r="G2" t="n">
-        <v>726304.4593953504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726304.4593953507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="J2" t="n">
-        <v>779989.6813710704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>740916.0683833577</v>
-      </c>
-      <c r="N2" t="n">
-        <v>740916.0683833576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>671051.9897256105</v>
-      </c>
       <c r="P2" t="n">
-        <v>671051.9897256105</v>
+        <v>726304.4593953517</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>201068.9115716352</v>
+        <v>124598.2186766198</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621992</v>
+        <v>1044462.425333909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902299</v>
+        <v>48646.25967902286</v>
       </c>
       <c r="J3" t="n">
         <v>37580.10929487406</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>172641.812171882</v>
+        <v>199180.5423999884</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>377175.7121142549</v>
+        <v>403654.0990349408</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362321</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362321</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="G4" t="n">
-        <v>59435.44534362312</v>
+        <v>59435.4453436232</v>
       </c>
       <c r="H4" t="n">
+        <v>59435.44534362316</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86909.55729936337</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86909.55729936338</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86909.5572993634</v>
+      </c>
+      <c r="L4" t="n">
+        <v>86909.55729936333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>89198.61203532522</v>
+      </c>
+      <c r="N4" t="n">
+        <v>89198.61203532526</v>
+      </c>
+      <c r="O4" t="n">
         <v>59435.4453436232</v>
       </c>
-      <c r="I4" t="n">
-        <v>86909.55729936341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>86909.5572993634</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86909.55729936338</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86909.55729936343</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68144.67816127579</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68144.67816127578</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26157.45196250038</v>
-      </c>
       <c r="P4" t="n">
-        <v>26157.45196250038</v>
+        <v>59435.4453436232</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>36799.24498379324</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178175</v>
@@ -26490,28 +26490,28 @@
         <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>79415.79044273686</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="N5" t="n">
-        <v>79415.79044273686</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="O5" t="n">
-        <v>75466.6376823484</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>75466.6376823484</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297660.3015087937</v>
+        <v>297616.1657301123</v>
       </c>
       <c r="C6" t="n">
-        <v>297660.3015087936</v>
+        <v>297616.1657301123</v>
       </c>
       <c r="D6" t="n">
-        <v>161393.46639574</v>
+        <v>213262.2156573783</v>
       </c>
       <c r="E6" t="n">
-        <v>-384111.6559322532</v>
+        <v>-457261.6736033246</v>
       </c>
       <c r="F6" t="n">
-        <v>588613.520729946</v>
+        <v>587200.7517305848</v>
       </c>
       <c r="G6" t="n">
-        <v>588613.5207299455</v>
+        <v>587200.7517305851</v>
       </c>
       <c r="H6" t="n">
-        <v>588613.5207299457</v>
+        <v>587200.7517305845</v>
       </c>
       <c r="I6" t="n">
-        <v>555055.9227178767</v>
+        <v>555055.9227178773</v>
       </c>
       <c r="J6" t="n">
-        <v>566122.0731020269</v>
+        <v>566122.0731020262</v>
       </c>
       <c r="K6" t="n">
-        <v>603702.1823968994</v>
+        <v>603702.1823969007</v>
       </c>
       <c r="L6" t="n">
-        <v>603702.1823968999</v>
+        <v>603702.1823969006</v>
       </c>
       <c r="M6" t="n">
-        <v>420713.787607463</v>
+        <v>405348.2548200715</v>
       </c>
       <c r="N6" t="n">
-        <v>593355.599779345</v>
+        <v>604528.7972200597</v>
       </c>
       <c r="O6" t="n">
-        <v>569427.9000807618</v>
+        <v>587200.751730585</v>
       </c>
       <c r="P6" t="n">
-        <v>569427.9000807618</v>
+        <v>587200.7517305858</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="N2" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>145.4883020088646</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80172383345974</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>145.4883020088646</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673038</v>
+        <v>944.2883985844335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063221</v>
+        <v>182.9350058063217</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959705</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>333.484924435573</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>187.927396050017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>113.1293006504388</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>195.6921713670413</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>220.5355478875734</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2988627001552</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>137.0305800607765</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>109.213130641935</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>78.62226331585293</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>80.72828317870457</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>165.8705016792384</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.9033725670278</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9207941137094</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.7286234040165</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>159.8945895670352</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>147.5607158609415</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>74.81061413760818</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>64.19330964835584</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>165.496913643795</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>219.4444492672838</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.8246139865738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3047190317031</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859136</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859168</v>
       </c>
       <c r="R22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859168</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29769,7 +29769,7 @@
         <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29933,10 +29933,10 @@
         <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859134</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="M34" t="n">
         <v>46.97513661859262</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.77686045205236</v>
+        <v>91.48995205464267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30173,16 +30173,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>28.93609632240708</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.77686045205236</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T37" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E40" t="n">
-        <v>60.77686045205236</v>
+        <v>86.47183148750457</v>
       </c>
       <c r="F40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30410,10 +30410,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>28.9360963224068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30422,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.77686045205236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.77686045205236</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
-        <v>13.8017238334598</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
-        <v>13.8017238334598</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.8017238334598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.5848775960155356</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>5.989877680194105</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>22.54849352038896</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>49.64075486482361</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>74.39862350416125</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>92.29807123322172</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>102.699388181363</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>104.3611716510421</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>98.54529505566265</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>84.1061294040291</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>63.16020049672272</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>36.73981729071092</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>13.32789821920403</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>2.560301676558009</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.04679020768124284</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.3129371024341616</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>3.022313594561508</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>10.77436953556214</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>29.56569352427314</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>50.53247938736197</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>67.94715463159285</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>79.29112459483119</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>81.38972472475153</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>74.455697349763</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>59.7572612534146</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>39.94614661949053</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>19.42955097393857</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>5.812669424599445</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>1.261356127793835</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.02058796726540538</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.2623559544422148</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>2.33258294040442</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>7.88975906631679</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>18.54856597906459</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>30.48099179792277</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>39.00517526316347</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>41.12548838588281</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>40.14761619205277</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>37.08282163334143</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>31.73076016272022</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>21.96873360333855</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>11.79647773337449</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>4.572148769688415</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.120975441707645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.01431032478775719</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34131,7 +34131,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.2811376003809</v>
@@ -34371,7 +34371,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623192</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037181</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36053,16 +36053,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36296,10 +36296,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637021</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>573.4402312688266</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36533,10 +36533,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>829.5225195673258</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5312714465573</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>614.4119707098157</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36849,10 +36849,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432258</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737849</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629109</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887893</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37241,7 +37241,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37387,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37469,16 +37469,16 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>380.5342326222504</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>405.6338066195924</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>331.2892265450468</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37706,10 +37706,10 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>348.6934684926049</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>408.4102398455361</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
         <v>344.8569461675401</v>
@@ -37718,7 +37718,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>295.7339315971627</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
         <v>78.39423853789363</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.38014044652598</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8493833777793</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>333.5590960036579</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>361.4351032269436</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>358.6586700009998</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>316.1548540560995</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>248.7587949785702</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.19596237135343</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.38014044652598</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8493833777793</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>333.5590960036579</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>361.4351032269436</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>358.6586700009998</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>316.1548540560995</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>248.7587949785702</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.19596237135343</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
